--- a/Aula2/Aula22_Lookup.xlsx
+++ b/Aula2/Aula22_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/ExcelTrainne/Aula2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2D5456-B896-3542-B600-04D940484015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4003AA90-8CAA-3E42-8945-72F468C4B9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="13720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="13720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup1" sheetId="2" r:id="rId1"/>
@@ -24,9 +24,11 @@
   <definedNames>
     <definedName name="Tabela1">Lookup2!$H$4:$I$10</definedName>
     <definedName name="Tabela2">Lookup2!$K$4:$L$6</definedName>
+    <definedName name="tabelaPT">Lookup2!$H$4:$I$10</definedName>
+    <definedName name="TabelaSP">Lookup2!$K$4:$L$6</definedName>
     <definedName name="Taxas">Lookup3!$K$4:$M$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Jorge Sá - Personal View" guid="{A7077723-4A6F-40DF-9EDE-883BE4D13ED2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1042" activeSheetId="1"/>
   </customWorkbookViews>
@@ -34,12 +36,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="75">
   <si>
     <t>Nome</t>
   </si>
@@ -137,9 +145,6 @@
     <t>Tratamento do Erro</t>
   </si>
   <si>
-    <t>Carlos</t>
-  </si>
-  <si>
     <t>Bonus</t>
   </si>
   <si>
@@ -158,9 +163,6 @@
     <t>Tabela 2 - Mercado SP</t>
   </si>
   <si>
-    <t>Loeps</t>
-  </si>
-  <si>
     <t>Tabela de IRS</t>
   </si>
   <si>
@@ -249,6 +251,27 @@
   </si>
   <si>
     <t>Procurar o mais perto</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Diferenças</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome: </t>
+  </si>
+  <si>
+    <t>indice</t>
   </si>
 </sst>
 </file>
@@ -258,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,13 +296,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -338,13 +436,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,6 +499,260 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5222C07D-73F0-C149-9D0B-A8D3E36C4AC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11785600" y="1193800"/>
+          <a:ext cx="3670300" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>o</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> vlookup não permite pesquisar por maiúsculas. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B02B399-F8E4-9B46-A4CD-91DECA34A204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6426200" y="2260600"/>
+          <a:ext cx="3492500" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=MATCH(I5,B5:B16,0)-&gt; encontra o local o mês</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=MATCH(I6,C4:E4,0) -&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> encontra a cor </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9041CF-B235-0B49-B003-561E8B178878}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="2844800"/>
+          <a:ext cx="4203700" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>EXACT-&gt; procura exatamente</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> o valor pretendido. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>=EXACT(H3,B3:B11) devolve T ou F </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,10 +1019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -670,13 +1034,13 @@
     <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -693,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -713,7 +1077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>156</v>
       </c>
@@ -739,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>165</v>
       </c>
@@ -755,11 +1119,19 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
+      <c r="H4">
+        <f>LOOKUP(H3,A3:D11)</f>
+        <v>1500</v>
+      </c>
       <c r="J4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <f>VLOOKUP(K3,B3:D11,3,FALSE)</f>
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>234</v>
       </c>
@@ -773,7 +1145,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>268</v>
       </c>
@@ -793,7 +1165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>290</v>
       </c>
@@ -810,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
@@ -819,7 +1191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>345</v>
       </c>
@@ -835,11 +1207,19 @@
       <c r="G8" t="s">
         <v>2</v>
       </c>
+      <c r="H8">
+        <f>VLOOKUP(H7,A3:D11,4,TRUE)</f>
+        <v>1000</v>
+      </c>
       <c r="J8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <f>VLOOKUP(K7,B3:D11,3,FALSE)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>411</v>
       </c>
@@ -853,7 +1233,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>525</v>
       </c>
@@ -873,7 +1253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>743</v>
       </c>
@@ -898,8 +1278,12 @@
       <c r="K11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="e">
+        <f>MATCH(K11&amp;K12,B3:B11&amp;C3:C11,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
         <v>7</v>
       </c>
@@ -910,25 +1294,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G14" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
         <v>30</v>
       </c>
+      <c r="H15">
+        <f>MATCH(H16,B3:B11,0)</f>
+        <v>3</v>
+      </c>
       <c r="J15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
         <v>0</v>
       </c>
@@ -939,20 +1327,28 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
         <v>1</v>
       </c>
+      <c r="H17">
+        <f>INDEX(A3:A11,H15)</f>
+        <v>234</v>
+      </c>
       <c r="J17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(K16,B3:D11,3,FALSE)," não Existe")</f>
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -961,6 +1357,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -969,250 +1366,293 @@
   <dimension ref="A2:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>156</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="9">
+        <f>IF(C3="PT",VLOOKUP(D3,tabelaPT,2,TRUE),IF(C3="SP",VLOOKUP(D3,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <v>120</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="I3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>165</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="9">
+        <v>5420</v>
+      </c>
+      <c r="E4" s="9">
+        <f>IF(C4="PT",VLOOKUP(D4,tabelaPT,2,TRUE),IF(C4="SP",VLOOKUP(D4,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <v>1000</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>234</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="9">
+        <f>IF(C5="PT",VLOOKUP(D5,tabelaPT,2,TRUE),IF(C5="SP",VLOOKUP(D5,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <v>120</v>
+      </c>
+      <c r="H5" s="11">
+        <v>500</v>
+      </c>
+      <c r="I5" s="11">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="11">
+        <v>5000</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>268</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5780</v>
+      </c>
+      <c r="E6" s="9">
+        <f>IF(C6="PT",VLOOKUP(D6,tabelaPT,2,TRUE),IF(C6="SP",VLOOKUP(D6,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <v>650</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="11">
+        <v>120</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="11">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="11">
         <v>1500</v>
       </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>165</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>5420</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>290</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="9">
+        <v>750</v>
+      </c>
+      <c r="E7" s="9">
+        <f>IF(C7="PT",VLOOKUP(D7,tabelaPT,2,TRUE),IF(C7="SP",VLOOKUP(D7,TabelaSP,2,TRUE),"No Bonus"))</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>234</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="H7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="11">
+        <v>245</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>345</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1230</v>
+      </c>
+      <c r="E8" s="9">
+        <f>IF(C8="PT",VLOOKUP(D8,tabelaPT,2,TRUE),IF(C8="SP",VLOOKUP(D8,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <v>120</v>
+      </c>
+      <c r="H8" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="11">
+        <v>375</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>411</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D5">
+      <c r="D9" s="9">
+        <v>450</v>
+      </c>
+      <c r="E9" s="9">
+        <f>IF(C9="PT",VLOOKUP(D9,tabelaPT,2,TRUE),IF(C9="SP",VLOOKUP(D9,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <v>100</v>
+      </c>
+      <c r="H9" s="11">
+        <v>5000</v>
+      </c>
+      <c r="I9" s="11">
+        <v>650</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>525</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9">
+        <v>6780</v>
+      </c>
+      <c r="E10" s="9">
+        <f>IF(C10="PT",VLOOKUP(D10,tabelaPT,2,TRUE),IF(C10="SP",VLOOKUP(D10,TabelaSP,2,TRUE),"No Bonus"))</f>
         <v>1000</v>
       </c>
-      <c r="H5">
-        <v>500</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5">
-        <v>5000</v>
-      </c>
-      <c r="L5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>268</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <v>5780</v>
-      </c>
-      <c r="H6">
-        <v>1000</v>
-      </c>
-      <c r="I6">
-        <v>120</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6">
+      <c r="H10" s="11">
         <v>10000</v>
       </c>
-      <c r="L6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>290</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>750</v>
-      </c>
-      <c r="H7">
+      <c r="I10" s="11">
+        <v>1400</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>743</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9">
         <v>2000</v>
       </c>
-      <c r="I7">
+      <c r="E11" s="9">
+        <f>IF(C11="PT",VLOOKUP(D11,tabelaPT,2,TRUE),IF(C11="SP",VLOOKUP(D11,TabelaSP,2,TRUE),"No Bonus"))</f>
         <v>245</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>345</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>1230</v>
-      </c>
-      <c r="H8">
-        <v>3000</v>
-      </c>
-      <c r="I8">
-        <v>375</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>411</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>450</v>
-      </c>
-      <c r="H9">
-        <v>5000</v>
-      </c>
-      <c r="I9">
-        <v>650</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>525</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <v>6780</v>
-      </c>
-      <c r="H10">
-        <v>10000</v>
-      </c>
-      <c r="I10">
-        <v>1400</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>743</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>743</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="9">
         <v>12000</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f>IF(C12="PT",VLOOKUP(D12,tabelaPT,2,TRUE),IF(C12="SP",VLOOKUP(D12,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <v>No Bonus</v>
       </c>
     </row>
   </sheetData>
@@ -1225,24 +1665,26 @@
   <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -1250,68 +1692,68 @@
         <v>180002</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="K3" t="s">
+      <c r="K3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K4">
+      <c r="K4" s="15">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="15">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K5">
+      <c r="K5" s="15">
         <v>18000</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="15">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="15">
         <v>0.19</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K6">
+      <c r="K6" s="15">
         <v>37000</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="15">
         <v>3612</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="15">
         <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K7">
+      <c r="K7" s="15">
         <v>87000</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="15">
         <v>19863</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="15">
         <v>0.37</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K8">
+      <c r="K8" s="15">
         <v>180000</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="15">
         <v>54274</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="15">
         <v>0.45</v>
       </c>
     </row>
@@ -1326,30 +1768,30 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4">
         <v>50</v>
@@ -1361,15 +1803,15 @@
         <v>240</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4">
         <v>90</v>
@@ -1381,15 +1823,15 @@
         <v>300</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4">
         <v>250</v>
@@ -1401,13 +1843,16 @@
         <v>300</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="I7" s="3">
+        <f>INDEX(C5:E16,MATCH(I5,B5:B16,0),MATCH(I6,C4:E4,0) )</f>
+        <v>250</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4">
         <v>450</v>
@@ -1421,7 +1866,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4">
         <v>590</v>
@@ -1435,7 +1880,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="4">
         <v>670</v>
@@ -1449,7 +1894,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4">
         <v>900</v>
@@ -1463,7 +1908,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="4">
         <v>1600</v>
@@ -1477,7 +1922,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4">
         <v>850</v>
@@ -1488,10 +1933,14 @@
       <c r="E13" s="4">
         <v>210</v>
       </c>
+      <c r="I13" s="13">
+        <f>MATCH(I5,B5:B16,0)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4">
         <v>250</v>
@@ -1502,10 +1951,14 @@
       <c r="E14" s="4">
         <v>270</v>
       </c>
+      <c r="I14" s="13">
+        <f>MATCH(I6,C4:E4,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4">
         <v>120</v>
@@ -1519,7 +1972,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4">
         <v>30</v>
@@ -1533,6 +1986,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1541,7 +1995,7 @@
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1596,6 +2050,10 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
+      <c r="H4">
+        <f t="array" ref="H4">MATCH(TRUE,EXACT(H3,B3:B11))</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1610,6 +2068,10 @@
       <c r="D5">
         <v>1000</v>
       </c>
+      <c r="H5" t="b">
+        <f>EXACT(H3,B3:B11)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1653,7 +2115,7 @@
         <v>1230</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1700,6 +2162,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1707,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:L8"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1723,7 +2186,7 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1739,7 +2202,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L4">
         <v>20</v>
@@ -1747,7 +2210,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>500</v>
@@ -1767,6 +2230,10 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f ca="1">INDIRECT(B5)</f>
+        <v>500</v>
+      </c>
       <c r="L8">
         <v>22</v>
       </c>
@@ -1780,16 +2247,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="16"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -1798,6 +2266,18 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -1806,11 +2286,27 @@
       <c r="C5">
         <v>1500</v>
       </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5">
-        <v>720</v>
+      <c r="D5">
+        <f>ABS($I$5-C5)</f>
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <f>MIN(D5:D13)</f>
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <f>MATCH(E5,D5:D13,0)</f>
+        <v>7</v>
+      </c>
+      <c r="G5" t="str">
+        <f>INDEX(B5:B13,F5)</f>
+        <v>JOSÉ</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="15">
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -1820,8 +2316,16 @@
       <c r="C6">
         <v>5420</v>
       </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D13" si="0">ABS($I$5-C6)</f>
+        <v>4920</v>
+      </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="I6" t="str">
+        <f>INDEX(B5:B13,MATCH(MIN(ABS($I$5-C6)),D5:D13,0))</f>
+        <v>Maria</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -1831,6 +2335,10 @@
       <c r="C7">
         <v>1000</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -1839,6 +2347,10 @@
       <c r="C8">
         <v>5780</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5280</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -1847,6 +2359,10 @@
       <c r="C9">
         <v>750</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -1855,6 +2371,10 @@
       <c r="C10">
         <v>1230</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>730</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -1863,6 +2383,10 @@
       <c r="C11">
         <v>450</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -1871,6 +2395,10 @@
       <c r="C12">
         <v>6780</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>6280</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
@@ -1878,6 +2406,10 @@
       </c>
       <c r="C13">
         <v>2000</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/Aula2/Aula22_Lookup.xlsx
+++ b/Aula2/Aula22_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/ExcelTrainne/Aula2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4003AA90-8CAA-3E42-8945-72F468C4B9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F9857-163D-2E4A-B128-F11EDD98F6C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="13720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="13720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup1" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
   <definedNames>
     <definedName name="Tabela1">Lookup2!$H$4:$I$10</definedName>
     <definedName name="Tabela2">Lookup2!$K$4:$L$6</definedName>
+    <definedName name="tabelaIRS">Lookup3!$K$4:$M$8</definedName>
     <definedName name="tabelaPT">Lookup2!$H$4:$I$10</definedName>
     <definedName name="TabelaSP">Lookup2!$K$4:$L$6</definedName>
     <definedName name="Taxas">Lookup3!$K$4:$M$8</definedName>
@@ -1363,6 +1364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1411,7 +1413,7 @@
         <v>1500</v>
       </c>
       <c r="E3" s="9">
-        <f>IF(C3="PT",VLOOKUP(D3,tabelaPT,2,TRUE),IF(C3="SP",VLOOKUP(D3,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <f t="shared" ref="E3:E12" si="0">IF(C3="PT",VLOOKUP(D3,tabelaPT,2,TRUE),IF(C3="SP",VLOOKUP(D3,TabelaSP,2,TRUE),"No Bonus"))</f>
         <v>120</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -1441,7 +1443,7 @@
         <v>5420</v>
       </c>
       <c r="E4" s="9">
-        <f>IF(C4="PT",VLOOKUP(D4,tabelaPT,2,TRUE),IF(C4="SP",VLOOKUP(D4,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="H4" s="11">
@@ -1471,7 +1473,7 @@
         <v>1000</v>
       </c>
       <c r="E5" s="9">
-        <f>IF(C5="PT",VLOOKUP(D5,tabelaPT,2,TRUE),IF(C5="SP",VLOOKUP(D5,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="H5" s="11">
@@ -1502,7 +1504,7 @@
         <v>5780</v>
       </c>
       <c r="E6" s="9">
-        <f>IF(C6="PT",VLOOKUP(D6,tabelaPT,2,TRUE),IF(C6="SP",VLOOKUP(D6,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="H6" s="11">
@@ -1533,7 +1535,7 @@
         <v>750</v>
       </c>
       <c r="E7" s="9">
-        <f>IF(C7="PT",VLOOKUP(D7,tabelaPT,2,TRUE),IF(C7="SP",VLOOKUP(D7,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H7" s="11">
@@ -1558,7 +1560,7 @@
         <v>1230</v>
       </c>
       <c r="E8" s="9">
-        <f>IF(C8="PT",VLOOKUP(D8,tabelaPT,2,TRUE),IF(C8="SP",VLOOKUP(D8,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="H8" s="11">
@@ -1583,7 +1585,7 @@
         <v>450</v>
       </c>
       <c r="E9" s="9">
-        <f>IF(C9="PT",VLOOKUP(D9,tabelaPT,2,TRUE),IF(C9="SP",VLOOKUP(D9,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H9" s="11">
@@ -1608,7 +1610,7 @@
         <v>6780</v>
       </c>
       <c r="E10" s="9">
-        <f>IF(C10="PT",VLOOKUP(D10,tabelaPT,2,TRUE),IF(C10="SP",VLOOKUP(D10,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="H10" s="11">
@@ -1633,7 +1635,7 @@
         <v>2000</v>
       </c>
       <c r="E11" s="9">
-        <f>IF(C11="PT",VLOOKUP(D11,tabelaPT,2,TRUE),IF(C11="SP",VLOOKUP(D11,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
     </row>
@@ -1651,7 +1653,7 @@
         <v>12000</v>
       </c>
       <c r="E12" s="9" t="str">
-        <f>IF(C12="PT",VLOOKUP(D12,tabelaPT,2,TRUE),IF(C12="SP",VLOOKUP(D12,TabelaSP,2,TRUE),"No Bonus"))</f>
+        <f t="shared" si="0"/>
         <v>No Bonus</v>
       </c>
     </row>
@@ -1662,10 +1664,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="K4" sqref="K4:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1765,6 +1768,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1992,6 +1996,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2168,10 +2173,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2180,6 +2186,10 @@
       <c r="H1">
         <v>2</v>
       </c>
+      <c r="I1">
+        <f ca="1">SUM(INDIRECT("L"&amp;H1&amp;":L"&amp;H2))</f>
+        <v>64</v>
+      </c>
       <c r="L1">
         <v>12</v>
       </c>
@@ -2245,9 +2255,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
